--- a/Costlist.xlsx
+++ b/Costlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\InstaPizza\Documents\Arduino\DrinkMixerRobot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D0580A-BFA0-46D9-BE74-EDCCDAFB55CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113F6BF8-9668-40F3-9004-E093552F9631}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34320" windowHeight="17775" xr2:uid="{275ED5E0-56BF-4016-A1A1-0530F874FC16}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Items</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>12V 2A Adapter with DC jack</t>
+  </si>
+  <si>
+    <t>https://www.tinytronics.nl/shop/en/others/storage/microsd-card-adapter-module-3.3v-5v-with-level-shifter</t>
+  </si>
+  <si>
+    <t>GoodRAM 8GB Class 4 microSD card with SD-card adapter</t>
+  </si>
+  <si>
+    <t>microSD Card Adapter Module 3.3V-5V with Level Shifter</t>
+  </si>
+  <si>
+    <t>https://www.tinytronics.nl/shop/en/others/storage/kingston-8gb-class-4-microsd-card-with-sd-kaart-adapter</t>
   </si>
 </sst>
 </file>
@@ -490,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073A5CA5-639E-4620-BAC4-7803672E5C54}">
-  <dimension ref="A2:F26"/>
+  <dimension ref="A2:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <f>B3 * C3</f>
+        <f t="shared" ref="D3:D15" si="0">B3 * C3</f>
         <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -551,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <f>B4 * C4</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -569,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <f>B5 * C5</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -587,7 +599,7 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <f>B6 * C6</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -605,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <f>B7 * C7</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -623,7 +635,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <f>B8 * C8</f>
+        <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -641,7 +653,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <f>B9 * C9</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -662,7 +674,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <f>B10 * C10</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -680,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <f>B11 * C11</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -698,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <f>B12 * C12</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -707,45 +719,75 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <v>14.99</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>9</v>
       </c>
-      <c r="D13">
-        <f>B13 * C13</f>
+      <c r="D15">
+        <f t="shared" si="0"/>
         <v>134.91</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>12</v>
       </c>
-      <c r="D14">
-        <f xml:space="preserve"> SUM(D3:D13)</f>
-        <v>229.16</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D16">
+        <f xml:space="preserve"> SUM(D3:D15)</f>
+        <v>237.16</v>
+      </c>
+      <c r="E16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -763,9 +805,15 @@
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E26" s="1"/>
     </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E13" r:id="rId1" xr:uid="{DD3F7E1E-CA14-42B2-8EDD-E41CDC648DA5}"/>
+    <hyperlink ref="E15" r:id="rId1" xr:uid="{DD3F7E1E-CA14-42B2-8EDD-E41CDC648DA5}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{4BA0EDC7-79B7-4665-8F5C-24C7AED9DE65}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{89636A59-6802-4588-92CE-FB6C8C92B688}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{64F29609-47B4-48BF-ADFC-C54B25D325ED}"/>
@@ -777,8 +825,10 @@
     <hyperlink ref="E8" r:id="rId10" xr:uid="{7421AA7F-2975-4A97-906F-CA000C303CBB}"/>
     <hyperlink ref="E7" r:id="rId11" xr:uid="{A5D7E221-5ADD-4AAB-8A2C-BBE2923F77DE}"/>
     <hyperlink ref="E6" r:id="rId12" xr:uid="{4B1F5E71-9C72-456E-9717-46B5F202B333}"/>
+    <hyperlink ref="E13" r:id="rId13" xr:uid="{2BE94BEC-880D-4E66-A438-AB75B5AF8958}"/>
+    <hyperlink ref="E14" r:id="rId14" xr:uid="{F8B6D70C-CE9E-403B-9375-EF391CD9C095}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>